--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC23CD6-335F-47E1-B2A2-6ACCDFB8B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA2B16F-A704-4E26-8727-8634696F6E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6836FFC1-5678-414C-9D52-C67FDEC0706A}"/>
   </bookViews>
@@ -59,15 +59,9 @@
     <t>week 3</t>
   </si>
   <si>
-    <t xml:space="preserve">week 4 </t>
-  </si>
-  <si>
     <t>character kleuren</t>
   </si>
   <si>
-    <t xml:space="preserve">week 5 </t>
-  </si>
-  <si>
     <t>character implementeren</t>
   </si>
   <si>
@@ -126,13 +120,19 @@
   </si>
   <si>
     <t>thema</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t>week 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +140,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,16 +184,147 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -180,8 +337,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}" name="Tabel2" displayName="Tabel2" ref="A1:H6" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="60% - Accent3" dataCellStyle="Standaard">
+  <autoFilter ref="A1:H6" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="8" dataCellStyle="Standaard"/>
+    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="7" dataCellStyle="Standaard"/>
+    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="6" dataCellStyle="Standaard"/>
+    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="5" dataCellStyle="Standaard"/>
+    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="4" dataCellStyle="Standaard"/>
+    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="3" dataCellStyle="Standaard"/>
+    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="2" dataCellStyle="Standaard"/>
+    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="1" dataCellStyle="Standaard"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,135 +671,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F59BE6-E2EE-4357-A83E-3AC8391228AF}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\GitHub\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA2B16F-A704-4E26-8727-8634696F6E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC8D70-5864-48DE-B1AA-6F78806B4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6836FFC1-5678-414C-9D52-C67FDEC0706A}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +160,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +178,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -188,10 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -206,11 +221,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -234,11 +255,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -338,17 +365,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}" name="Tabel2" displayName="Tabel2" ref="A1:H6" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="60% - Accent3" dataCellStyle="Standaard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}" name="Tabel2" displayName="Tabel2" ref="A1:H6" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="60% - Accent3" dataCellStyle="Standaard">
   <autoFilter ref="A1:H6" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="8" dataCellStyle="Standaard"/>
-    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="7" dataCellStyle="Standaard"/>
-    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="6" dataCellStyle="Standaard"/>
-    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="5" dataCellStyle="Standaard"/>
-    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="4" dataCellStyle="Standaard"/>
-    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="3" dataCellStyle="Standaard"/>
-    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="2" dataCellStyle="Standaard"/>
-    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="1" dataCellStyle="Standaard"/>
+    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="2" dataCellStyle="Standaard"/>
+    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="0" dataCellStyle="Standaard"/>
+    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="1" dataCellStyle="Standaard"/>
+    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="7" dataCellStyle="Standaard"/>
+    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="6" dataCellStyle="Standaard"/>
+    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="5" dataCellStyle="Standaard"/>
+    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="4" dataCellStyle="Standaard"/>
+    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="3" dataCellStyle="Standaard"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -674,7 +701,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,10 +716,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -715,10 +742,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -741,10 +768,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -763,14 +790,14 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -785,14 +812,14 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
@@ -801,8 +828,8 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="2"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\GitHub\PRTA_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC8D70-5864-48DE-B1AA-6F78806B4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0573DAF-A5EC-4A53-A5CE-7187976D10F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6836FFC1-5678-414C-9D52-C67FDEC0706A}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="20820" windowHeight="8880" xr2:uid="{6836FFC1-5678-414C-9D52-C67FDEC0706A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>week 1</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>week 5</t>
+  </si>
+  <si>
+    <t>poster</t>
   </si>
 </sst>
 </file>
@@ -200,73 +203,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -351,6 +299,60 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -365,24 +367,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}" name="Tabel2" displayName="Tabel2" ref="A1:H6" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="60% - Accent3" dataCellStyle="Standaard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}" name="Tabel2" displayName="Tabel2" ref="A1:H6" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="60% - Accent3">
   <autoFilter ref="A1:H6" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="2" dataCellStyle="Standaard"/>
-    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="0" dataCellStyle="Standaard"/>
-    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="1" dataCellStyle="Standaard"/>
-    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="7" dataCellStyle="Standaard"/>
-    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="6" dataCellStyle="Standaard"/>
-    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="5" dataCellStyle="Standaard"/>
-    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="4" dataCellStyle="Standaard"/>
-    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="3" dataCellStyle="Standaard"/>
+    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -701,7 +703,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,10 +718,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -742,10 +744,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -763,15 +765,13 @@
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -786,14 +786,18 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -812,24 +816,26 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="2"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\GitHub\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC8D70-5864-48DE-B1AA-6F78806B4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6525D-94CF-452F-8842-4013DE4FC419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6836FFC1-5678-414C-9D52-C67FDEC0706A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>week 1</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>week 5</t>
+  </si>
+  <si>
+    <t>Posters</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
   </si>
 </sst>
 </file>
@@ -204,9 +210,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -246,6 +252,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -317,25 +343,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -368,14 +386,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}" name="Tabel2" displayName="Tabel2" ref="A1:H6" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="60% - Accent3" dataCellStyle="Standaard">
   <autoFilter ref="A1:H6" xr:uid="{5E1E3FD8-30BC-40EA-920C-93974DCB8E08}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="2" dataCellStyle="Standaard"/>
-    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="0" dataCellStyle="Standaard"/>
-    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="1" dataCellStyle="Standaard"/>
-    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="7" dataCellStyle="Standaard"/>
-    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="6" dataCellStyle="Standaard"/>
-    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="5" dataCellStyle="Standaard"/>
-    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="4" dataCellStyle="Standaard"/>
-    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="3" dataCellStyle="Standaard"/>
+    <tableColumn id="1" xr3:uid="{5851CE2F-AD28-4049-9153-B2562218642D}" name="week 1" dataDxfId="7" dataCellStyle="Standaard"/>
+    <tableColumn id="2" xr3:uid="{2EE4CE49-BE63-4FDF-A095-808A97BE47D5}" name="week 2" dataDxfId="3" dataCellStyle="Standaard"/>
+    <tableColumn id="3" xr3:uid="{4F294BAA-AC4F-4BD9-BC48-576E9367D8CB}" name="week 3" dataDxfId="2" dataCellStyle="Standaard"/>
+    <tableColumn id="4" xr3:uid="{606D3325-5CE6-4E4A-A69F-D2F1C96EA5BC}" name="week 4" dataDxfId="0" dataCellStyle="Standaard"/>
+    <tableColumn id="5" xr3:uid="{82FF7BBD-DA82-40D0-BB9A-3E6A3D582777}" name="week 5" dataDxfId="1" dataCellStyle="Standaard"/>
+    <tableColumn id="6" xr3:uid="{E0337F3C-2C15-43D0-A0EA-73E4C8A38A7F}" name="week 6" dataDxfId="6" dataCellStyle="Standaard"/>
+    <tableColumn id="7" xr3:uid="{BB31015C-B728-4EF0-AD57-0ED369378382}" name="week 7" dataDxfId="5" dataCellStyle="Standaard"/>
+    <tableColumn id="8" xr3:uid="{87E1318C-C2A2-432B-A264-219E0916558C}" name="week 8" dataDxfId="4" dataCellStyle="Standaard"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,7 +719,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,16 +734,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -742,16 +760,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -768,73 +786,77 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
